--- a/Post/Index/data/Distribusi Data Suhu Udara.xlsx
+++ b/Post/Index/data/Distribusi Data Suhu Udara.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78216</v>
+        <v>78215</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.51255280249566</v>
+        <v>27.53256766604871</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.090147129490131</v>
+        <v>2.399384437246353</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1537.95</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="6">

--- a/Post/Index/data/Distribusi Data Suhu Udara.xlsx
+++ b/Post/Index/data/Distribusi Data Suhu Udara.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78215</v>
+        <v>78214</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.53256766604871</v>
+        <v>27.53176515713299</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.399384437246353</v>
+        <v>2.388879773628455</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.3</v>
+        <v>48.42</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Distribusi Data Suhu Udara.xlsx
+++ b/Post/Index/data/Distribusi Data Suhu Udara.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78214</v>
+        <v>37250</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.53176515713299</v>
+        <v>27.27952697986577</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.388879773628455</v>
+        <v>2.121482090215363</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.7</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.1</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.42</v>
+        <v>36.33</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Distribusi Data Suhu Udara.xlsx
+++ b/Post/Index/data/Distribusi Data Suhu Udara.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37250</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.27952697986577</v>
+        <v>27.49816139233508</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.121482090215363</v>
+        <v>2.189165036379751</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.6</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.79</v>
+        <v>29.06</v>
       </c>
     </row>
     <row r="9">

--- a/Post/Index/data/Distribusi Data Suhu Udara.xlsx
+++ b/Post/Index/data/Distribusi Data Suhu Udara.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45219</v>
+        <v>45215</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.49816139233508</v>
+        <v>27.4981324781599</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.189165036379751</v>
+        <v>2.189259673507078</v>
       </c>
     </row>
     <row r="5">
